--- a/Config.xlsx
+++ b/Config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>(CONJUNTA[S]*[\s]{1,}[HASTA|DE]*[\s]{1,}[$|\s][\s]{0,}[\d]*[.|s|`|']{,1}[\d]*[.|s|,]{,1}[\d]*[.|\s|,|:|\;]{,1}[\d]*)([\w*]*[\s]{0,}(?:[^\.-0-9-]*\.){0,2}[\s]{0,}\w*[\s]{0,}[\"CON\"[\s]{0,}\w*[\s]{0,}\w*[\.*\w*]*]*)</t>
   </si>
   <si>
-    <t>DEL[\s]{1,}CH[.|\s]*[Q|EQUE|\s]*[#|\s]*[\d]*[.|\s]{,1}[\d]*[\s]{,1}AL[\s]{,1}([\d]*[.|\s]{,1}[\d]*)</t>
-  </si>
-  <si>
     <t>(\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})[Y|s]*([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})FIRMA[\s]{1,}DES</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>([^()0-9-.\,]+)[\s]{1,}[Y][\s]{1,}([^()0-9-.\,]+)[FIRMAN]</t>
   </si>
   <si>
-    <t>(DESD[E]*[\s]{1,}[EL|\s]*CH[.|\s]*[Q|EQUE|\s]*[#|\s]*){1}([\d]*[.|s]{,1}[\d]*)</t>
-  </si>
-  <si>
     <t>casos_split</t>
   </si>
   <si>
@@ -142,6 +136,12 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>DEL[\s]{1,}CH[.|\s]*[Q|EQUE|\s]*[#|\s]*[\d]*[.|\s]{,1}[\d]*[\s]{,1}(AL)[\s]{,1}([\d]*[.|\s]{,1}[\d]*)</t>
+  </si>
+  <si>
+    <t>(DES[D]*[E]*[\s]{0,}[EL|\s]*CH[.|\s]*[Q|EQUE|\s]*[#|\s]*){1}([\d]*[.|s]{,1}[\d]*)</t>
   </si>
 </sst>
 </file>
@@ -503,25 +503,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="130" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="130" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="112.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="112.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,10 +550,10 @@
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -582,10 +582,10 @@
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,10 +612,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -626,46 +626,47 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2"/>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
       <c r="I8" s="2" t="s">
         <v>27</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -114,9 +114,6 @@
     <t>(\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})[Y|s]*([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})FIRMA[\s]{1,}DES</t>
   </si>
   <si>
-    <t>[^Y]([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})F[.|"IRMA"]*[\s]{0}[I]</t>
-  </si>
-  <si>
     <t>([^()0-9-.\,]+)[\s]{1,}[Y][\s]{1,}([^()0-9-.\,]+)[FIRMAN]</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>(DES[D]*[E]*[\s]{0,}[EL|\s]*CH[.|\s]*[Q|EQUE|\s]*[#|\s]*){1}([\d]*[.|s]{,1}[\d]*)</t>
+  </si>
+  <si>
+    <t>[^Y]([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})F[.|IRMA]*[\s]{0}[I]</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="130" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
         <v>20</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -561,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -582,7 +582,7 @@
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -612,7 +612,7 @@
         <v>22</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -626,31 +626,31 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>SGTE CONDICION_RULE</t>
   </si>
@@ -114,34 +114,28 @@
     <t>(\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})[Y|s]*([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})FIRMA[\s]{1,}DES</t>
   </si>
   <si>
-    <t>([^()0-9-.\,]+)[\s]{1,}[Y][\s]{1,}([^()0-9-.\,]+)[FIRMAN]</t>
-  </si>
-  <si>
-    <t>casos_split</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>$</t>
+    <t>[^Y]([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})F[.|"IRMA"]*[\s]{0}[I]</t>
+  </si>
+  <si>
+    <t>(DESD[E]*[\s]{1,}[EL|\s]*CH[.|\s]*[Q|EQUE|\s]*[#|\s]*){1}([\d]*[.|s]{,1}[\d]*)</t>
   </si>
   <si>
     <t>DEL[\s]{1,}CH[.|\s]*[Q|EQUE|\s]*[#|\s]*[\d]*[.|\s]{,1}[\d]*[\s]{,1}(AL)[\s]{,1}([\d]*[.|\s]{,1}[\d]*)</t>
   </si>
   <si>
-    <t>(DES[D]*[E]*[\s]{0,}[EL|\s]*CH[.|\s]*[Q|EQUE|\s]*[#|\s]*){1}([\d]*[.|s]{,1}[\d]*)</t>
-  </si>
-  <si>
-    <t>[^Y]([\s]{1,}\w*[.|s]*[\s]{1,}\w*[\Ñ|s]*\w*[\s]{1,})F[.|IRMA]*[\s]{0}[I]</t>
+    <t>(FS.[\s]{0,}CONJUN.*?)(?=[\s|+|.])</t>
+  </si>
+  <si>
+    <t>(FS.[\s]{0,}INDIVI.*?)(?=[\s|+|.])</t>
+  </si>
+  <si>
+    <t>([^()0-9-.]*?)[\s]{1,}[Y][\s]{1,}([^()0-9-.\,]*)FIRMAN</t>
+  </si>
+  <si>
+    <t>([^()0-9-.]*?),([^()0-9-.]*?)[\s]{1,}[Y][\s]{1,}([^()0-9-.\,]*)FIRMAN</t>
+  </si>
+  <si>
+    <t>FIRMAS INDIVIDUALES[\s]{1}(.+?(?=,)),(.+?(?=,)),(.+?(?=[\s]Y))[\s]Y[\s](.+?(?=FIRMAN))</t>
   </si>
 </sst>
 </file>
@@ -501,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="130" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,11 +511,9 @@
     <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="112.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,11 +541,8 @@
       <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -575,17 +564,14 @@
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
+      <c r="H2" t="s">
+        <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -605,71 +591,71 @@
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>29</v>
+      <c r="H3" t="s">
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="3"/>
       <c r="I8" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
